--- a/iNetBanking/src/test/java/com/iNetBanking/testData/LoginData.xlsx
+++ b/iNetBanking/src/test/java/com/iNetBanking/testData/LoginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUDARSAN PUHAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUDARSAN PUHAN\git\InternetBanking\iNetBanking\src\test\java\com\iNetBanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,8 +119,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,58 +415,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
